--- a/asins.xlsx
+++ b/asins.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>B00132Q9M2</t>
-  </si>
-  <si>
-    <t>B002KW3OQS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>B000K6TF1Y</t>
+  </si>
+  <si>
+    <t>B01BHUSR38</t>
+  </si>
+  <si>
+    <t>B000W8J67S</t>
+  </si>
+  <si>
+    <t>B00LSOURPA</t>
+  </si>
+  <si>
+    <t>B075NZC7PR</t>
+  </si>
+  <si>
+    <t>B016P70092</t>
   </si>
 </sst>
 </file>
@@ -68,10 +80,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -345,7 +358,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -366,13 +379,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
